--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_ALL.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_ALL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version3.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_git\Mogo_Doc\VersionRecords\Version3.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.1.1新特性|Fix Bug'!$A$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="285">
   <si>
     <t>No</t>
   </si>
@@ -1100,6 +1100,34 @@
   </si>
   <si>
     <t>房源推荐排序规则实时更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】职业房东录入，必填信息提交错误后，无法再次提交问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类型设置只有双击才能勾选</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1394,7 +1422,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1514,6 +1542,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1877,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4209,42 +4240,40 @@
         <v>55</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="F56" s="21">
         <v>42478</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="H56" s="21">
         <v>42478</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="20" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="20"/>
       <c r="N56" s="21"/>
       <c r="O56" s="20"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25" t="s">
-        <v>177</v>
-      </c>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
       <c r="S56" s="26"/>
       <c r="T56" s="27"/>
     </row>
@@ -4252,14 +4281,14 @@
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>178</v>
+      <c r="B57" s="40" t="s">
+        <v>281</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>32</v>
@@ -4268,25 +4297,25 @@
         <v>42478</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>172</v>
+        <v>282</v>
       </c>
       <c r="H57" s="21">
         <v>42478</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="20" t="s">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c r="L57" s="8"/>
       <c r="M57" s="20"/>
       <c r="N57" s="21"/>
       <c r="O57" s="20"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
       <c r="S57" s="26"/>
       <c r="T57" s="27"/>
     </row>
@@ -4295,29 +4324,29 @@
         <v>57</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="F58" s="21">
         <v>42478</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H58" s="21">
         <v>42478</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>176</v>
@@ -4328,7 +4357,9 @@
       <c r="O58" s="20"/>
       <c r="P58" s="25"/>
       <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
+      <c r="R58" s="25" t="s">
+        <v>177</v>
+      </c>
       <c r="S58" s="26"/>
       <c r="T58" s="27"/>
     </row>
@@ -4337,29 +4368,29 @@
         <v>58</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="F59" s="21">
         <v>42478</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="H59" s="21">
         <v>42478</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>181</v>
@@ -4379,22 +4410,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="F60" s="21">
         <v>42478</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="H60" s="21">
         <v>42478</v>
@@ -4404,7 +4435,7 @@
         <v>173</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L60" s="8"/>
       <c r="M60" s="20"/>
@@ -4421,13 +4452,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>186</v>
@@ -4436,17 +4467,17 @@
         <v>42478</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="H61" s="21">
         <v>42478</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="20"/>
@@ -4463,13 +4494,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>190</v>
@@ -4485,10 +4516,10 @@
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="20" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="20"/>
@@ -4505,32 +4536,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="F63" s="21">
         <v>42478</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="H63" s="21">
         <v>42478</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="20"/>
@@ -4547,16 +4578,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F64" s="21">
         <v>42478</v>
@@ -4569,10 +4600,10 @@
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="20"/>
@@ -4589,22 +4620,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="F65" s="21">
         <v>42478</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="H65" s="21">
         <v>42478</v>
@@ -4614,7 +4645,7 @@
         <v>199</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="20"/>
@@ -4631,13 +4662,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>186</v>
@@ -4646,14 +4677,14 @@
         <v>42478</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="H66" s="21">
         <v>42478</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>181</v>
@@ -4673,32 +4704,32 @@
         <v>66</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="F67" s="21">
         <v>42478</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="H67" s="21">
         <v>42478</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="20"/>
@@ -4715,29 +4746,29 @@
         <v>67</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="F68" s="21">
         <v>42478</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="H68" s="21">
         <v>42478</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="20" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>181</v>
@@ -4757,32 +4788,32 @@
         <v>68</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F69" s="21">
         <v>42478</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="H69" s="21">
         <v>42478</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="20"/>
@@ -4794,104 +4825,102 @@
       <c r="S69" s="26"/>
       <c r="T69" s="27"/>
     </row>
-    <row r="70" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F70" s="32">
-        <v>42475</v>
-      </c>
-      <c r="G70" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H70" s="32">
-        <v>42475</v>
-      </c>
-      <c r="I70" s="31"/>
-      <c r="J70" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="K70" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="L70" s="31"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="S70" s="35"/>
-      <c r="T70" s="36"/>
-    </row>
-    <row r="71" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B70" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" s="21">
+        <v>42478</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H70" s="21">
+        <v>42478</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L70" s="8"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="26"/>
+      <c r="T70" s="27"/>
+    </row>
+    <row r="71" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F71" s="32">
-        <v>42475</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H71" s="32">
-        <v>42475</v>
-      </c>
-      <c r="I71" s="31"/>
-      <c r="J71" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="K71" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="L71" s="31"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="36"/>
+      <c r="B71" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="21">
+        <v>42478</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="21">
+        <v>42478</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L71" s="8"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="27"/>
     </row>
     <row r="72" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>71</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E72" s="31" t="s">
         <v>213</v>
@@ -4907,7 +4936,7 @@
       </c>
       <c r="I72" s="31"/>
       <c r="J72" s="33" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="K72" s="31" t="s">
         <v>215</v>
@@ -4918,7 +4947,9 @@
       <c r="O72" s="33"/>
       <c r="P72" s="34"/>
       <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
+      <c r="R72" s="34" t="s">
+        <v>216</v>
+      </c>
       <c r="S72" s="35"/>
       <c r="T72" s="36"/>
     </row>
@@ -4927,13 +4958,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C73" s="31" t="s">
         <v>211</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E73" s="31" t="s">
         <v>213</v>
@@ -4949,7 +4980,7 @@
       </c>
       <c r="I73" s="31"/>
       <c r="J73" s="33" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K73" s="31" t="s">
         <v>215</v>
@@ -4969,13 +5000,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E74" s="31" t="s">
         <v>213</v>
@@ -4991,7 +5022,7 @@
       </c>
       <c r="I74" s="31"/>
       <c r="J74" s="33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K74" s="31" t="s">
         <v>215</v>
@@ -5011,13 +5042,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C75" s="31" t="s">
         <v>211</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E75" s="31" t="s">
         <v>213</v>
@@ -5053,13 +5084,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C76" s="31" t="s">
         <v>211</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E76" s="31" t="s">
         <v>213</v>
@@ -5090,111 +5121,105 @@
       <c r="S76" s="35"/>
       <c r="T76" s="36"/>
     </row>
-    <row r="77" spans="1:20" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="21">
-        <v>42478</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="21">
-        <v>42478</v>
-      </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M77" s="20"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="T77" s="27"/>
-    </row>
-    <row r="78" spans="1:20" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F77" s="32">
+        <v>42475</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H77" s="32">
+        <v>42475</v>
+      </c>
+      <c r="I77" s="31"/>
+      <c r="J77" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="L77" s="31"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="33"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="36"/>
+    </row>
+    <row r="78" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" s="21">
-        <v>42478</v>
-      </c>
-      <c r="G78" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H78" s="21">
-        <v>42478</v>
-      </c>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="K78" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="T78" s="27"/>
-    </row>
-    <row r="79" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B78" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" s="32">
+        <v>42475</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H78" s="32">
+        <v>42475</v>
+      </c>
+      <c r="I78" s="31"/>
+      <c r="J78" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="L78" s="31"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="36"/>
+    </row>
+    <row r="79" spans="1:20" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="F79" s="21">
         <v>42478</v>
@@ -5207,12 +5232,14 @@
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="L79" s="20"/>
+        <v>235</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="M79" s="20"/>
       <c r="N79" s="21"/>
       <c r="O79" s="20"/>
@@ -5220,25 +5247,25 @@
       <c r="Q79" s="25"/>
       <c r="R79" s="38"/>
       <c r="S79" s="26" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="T79" s="27"/>
     </row>
-    <row r="80" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="8">
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>239</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F80" s="21">
         <v>42478</v>
@@ -5251,12 +5278,12 @@
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="L80" s="8"/>
+        <v>241</v>
+      </c>
+      <c r="L80" s="20"/>
       <c r="M80" s="20"/>
       <c r="N80" s="21"/>
       <c r="O80" s="20"/>
@@ -5273,34 +5300,34 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="F81" s="21">
         <v>42478</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="H81" s="21">
         <v>42478</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L81" s="8"/>
+      <c r="L81" s="20"/>
       <c r="M81" s="20"/>
       <c r="N81" s="21"/>
       <c r="O81" s="20"/>
@@ -5308,7 +5335,7 @@
       <c r="Q81" s="25"/>
       <c r="R81" s="38"/>
       <c r="S81" s="26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="T81" s="27"/>
     </row>
@@ -5317,13 +5344,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>130</v>
@@ -5339,14 +5366,12 @@
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L82" s="8" t="s">
-        <v>256</v>
-      </c>
+      <c r="L82" s="8"/>
       <c r="M82" s="20"/>
       <c r="N82" s="21"/>
       <c r="O82" s="20"/>
@@ -5354,7 +5379,7 @@
       <c r="Q82" s="25"/>
       <c r="R82" s="38"/>
       <c r="S82" s="26" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="T82" s="27"/>
     </row>
@@ -5363,13 +5388,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>130</v>
@@ -5385,22 +5410,20 @@
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L83" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="L83" s="8"/>
       <c r="M83" s="20"/>
       <c r="N83" s="21"/>
       <c r="O83" s="20"/>
       <c r="P83" s="25"/>
       <c r="Q83" s="25"/>
-      <c r="R83" s="39"/>
+      <c r="R83" s="38"/>
       <c r="S83" s="26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="T83" s="27"/>
     </row>
@@ -5409,42 +5432,44 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="F84" s="21">
         <v>42478</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="H84" s="21">
         <v>42478</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L84" s="8"/>
+      <c r="L84" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="M84" s="20"/>
       <c r="N84" s="21"/>
       <c r="O84" s="20"/>
       <c r="P84" s="25"/>
       <c r="Q84" s="25"/>
-      <c r="R84" s="39"/>
+      <c r="R84" s="38"/>
       <c r="S84" s="26" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="T84" s="27"/>
     </row>
@@ -5453,13 +5478,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>130</v>
@@ -5475,12 +5500,14 @@
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L85" s="8"/>
+      <c r="L85" s="8" t="s">
+        <v>260</v>
+      </c>
       <c r="M85" s="20"/>
       <c r="N85" s="21"/>
       <c r="O85" s="20"/>
@@ -5488,7 +5515,7 @@
       <c r="Q85" s="25"/>
       <c r="R85" s="39"/>
       <c r="S85" s="26" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="T85" s="27"/>
     </row>
@@ -5497,16 +5524,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="F86" s="21">
         <v>42478</v>
@@ -5522,19 +5549,17 @@
         <v>263</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>269</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="L86" s="8"/>
       <c r="M86" s="20"/>
       <c r="N86" s="21"/>
       <c r="O86" s="20"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
       <c r="R86" s="39"/>
       <c r="S86" s="26" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="T86" s="27"/>
     </row>
@@ -5543,7 +5568,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>139</v>
@@ -5558,7 +5583,7 @@
         <v>42478</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="H87" s="21">
         <v>42478</v>
@@ -5574,8 +5599,8 @@
       <c r="M87" s="20"/>
       <c r="N87" s="21"/>
       <c r="O87" s="20"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
       <c r="R87" s="39"/>
       <c r="S87" s="26" t="s">
         <v>247</v>
@@ -5587,13 +5612,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>130</v>
@@ -5602,20 +5627,20 @@
         <v>42478</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="H88" s="21">
         <v>42478</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="K88" s="8" t="s">
         <v>235</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M88" s="20"/>
       <c r="N88" s="21"/>
@@ -5624,7 +5649,7 @@
       <c r="Q88" s="17"/>
       <c r="R88" s="39"/>
       <c r="S88" s="26" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="T88" s="27"/>
     </row>
@@ -5633,13 +5658,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>130</v>
@@ -5648,21 +5673,19 @@
         <v>42478</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="H89" s="21">
         <v>42478</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="K89" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L89" s="8" t="s">
-        <v>272</v>
-      </c>
+      <c r="L89" s="8"/>
       <c r="M89" s="20"/>
       <c r="N89" s="21"/>
       <c r="O89" s="20"/>
@@ -5670,7 +5693,7 @@
       <c r="Q89" s="17"/>
       <c r="R89" s="39"/>
       <c r="S89" s="26" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="T89" s="27"/>
     </row>
@@ -5679,10 +5702,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>254</v>
@@ -5701,7 +5724,7 @@
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>235</v>
@@ -5716,7 +5739,7 @@
       <c r="Q90" s="17"/>
       <c r="R90" s="39"/>
       <c r="S90" s="26" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="T90" s="27"/>
     </row>
@@ -5725,13 +5748,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>130</v>
@@ -5740,19 +5763,21 @@
         <v>42478</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="H91" s="21">
         <v>42478</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="K91" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L91" s="8"/>
+      <c r="L91" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="M91" s="20"/>
       <c r="N91" s="21"/>
       <c r="O91" s="20"/>
@@ -5760,7 +5785,7 @@
       <c r="Q91" s="17"/>
       <c r="R91" s="39"/>
       <c r="S91" s="26" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="T91" s="27"/>
     </row>
@@ -5769,13 +5794,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>196</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>130</v>
@@ -5794,7 +5819,7 @@
         <v>255</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>272</v>
@@ -5815,13 +5840,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>130</v>
@@ -5837,14 +5862,12 @@
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L93" s="8" t="s">
-        <v>272</v>
-      </c>
+      <c r="L93" s="8"/>
       <c r="M93" s="20"/>
       <c r="N93" s="21"/>
       <c r="O93" s="20"/>
@@ -5852,45 +5875,101 @@
       <c r="Q93" s="17"/>
       <c r="R93" s="39"/>
       <c r="S93" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="T93" s="27"/>
+    </row>
+    <row r="94" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="8">
+        <v>93</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" s="21">
+        <v>42478</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H94" s="21">
+        <v>42478</v>
+      </c>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M94" s="20"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="T93" s="27"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A94" s="7"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="4"/>
-      <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A95" s="7"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="4"/>
-      <c r="S95" s="4"/>
+      <c r="T94" s="27"/>
+    </row>
+    <row r="95" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95" s="21">
+        <v>42478</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H95" s="21">
+        <v>42478</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M95" s="20"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="T95" s="27"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
@@ -5945,6 +6024,42 @@
       <c r="N98" s="5"/>
       <c r="O98" s="4"/>
       <c r="S98" s="4"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A99" s="7"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="4"/>
+      <c r="S99" s="4"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A100" s="7"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="4"/>
+      <c r="S100" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_ALL.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_ALL.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_git\Mogo_Doc\VersionRecords\Version3.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version3.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.1新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
+    <sheet name="上线准备执行方案" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.1.1新特性|Fix Bug'!$A$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="332">
   <si>
     <t>No</t>
   </si>
@@ -1130,12 +1131,201 @@
     <t>发现组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>3.1.1项目上线准备执行方案
+（预发布环境先验证一遍）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进展</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量报告检查</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期准备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据初始化脚本准备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务SQL表结构脚本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请见“SQL_Scripts”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据初始化脚本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc,partner app配置文件.txt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc,partner app</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈铖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version 3.1.1\配置文件\partnerpc,partner app配置文件.txt”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs,renterpc 配置文件.txt</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs,renterpc</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version 3.1.1\配置文件\bs,renterpc 配置文件.txt”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-mesgrept配置文件</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-mesgrept</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version 3.1.1\配置文件\mogoroom-mesgrept配置文件.txt”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送包配置</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送包</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version 3.1.1\配置文件\消息发送包配置.txt”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线进行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行SQL脚本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有业务SQL表结构脚本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张思杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待执行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待执行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version 3.1.1\配置文件\消息发送包配置.txt”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目工程启动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无新增修改内容</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎部署</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1265,8 +1455,52 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1291,8 +1525,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1380,6 +1638,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1422,7 +1713,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1544,6 +1835,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1910,7 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
@@ -6302,4 +6651,403 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="43" customWidth="1"/>
+    <col min="5" max="5" width="38" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="53.625" style="60" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="44">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="46">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="52">
+        <v>3</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="50"/>
+      <c r="I13" s="48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="H14" s="50"/>
+      <c r="I14" s="48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="H17" s="57"/>
+      <c r="I17" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_ALL.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_ALL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version3.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.1新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.1.1新特性|Fix Bug'!$A$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="360">
   <si>
     <t>No</t>
   </si>
@@ -131,379 +131,846 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客Pc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龙国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武孟华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付倒计时计算不准确问题修复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章在memcache中的存储方式重构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客PC】房间详情页banner组件优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客App】新增退出登录的后端接口，解绑激光推送设备号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有涉及金额的Double改成BigDecimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客App】收藏房源服务端同步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在safari中进入了蘑菇官网相关操作时直接打开我们的应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务逻辑中去掉维金Code和下线维金功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域、商圈、小区改用缓存数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>找房搜索引擎每次取出地图当前经纬度范围内的房源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC、房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】【房东APP】自定义功能优化，默认初始为初级功能，配置后可展开高级功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【房东PC】【房东APP】房东财务报表优化 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【房东PC】【房东APP】添加房源时房间号生成规则更改，由A到Z依次生成 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP财务管理详情页，需要将房源地址一并列出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝相关短信模板替换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App&amp;房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务列表提现以及冲正，交易费仍为“蘑菇公寓”修改为“蘑菇租房”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接池参数优化</t>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>房东App&amp;房东PC</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>姚海强</t>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>短信健康度统计</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>蒙先铭</t>
+  </si>
+  <si>
+    <t>租客订单列表性能优化</t>
+  </si>
+  <si>
+    <t>bugfix</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>王涛</t>
+  </si>
+  <si>
+    <t>银行卡区分对公对私</t>
+  </si>
+  <si>
+    <t>bs/租客app</t>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+  </si>
+  <si>
+    <t>提现黑名单维护功能</t>
+  </si>
+  <si>
+    <t>关键词拦截功能</t>
+  </si>
+  <si>
+    <t>可用性埋点</t>
+  </si>
+  <si>
+    <t>payapi</t>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷体系接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口开发，暂无功能测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子母账号二期接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+  </si>
+  <si>
+    <t>房源推荐排序规则实时更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1项目上线准备执行方案
+（预发布环境先验证一遍）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进展</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量报告检查</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期准备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据初始化脚本准备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务SQL表结构脚本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请见“SQL_Scripts”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据初始化脚本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc,partner app配置文件.txt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc,partner app</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈铖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version 3.1.1\配置文件\partnerpc,partner app配置文件.txt”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs,renterpc 配置文件.txt</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs,renterpc</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version 3.1.1\配置文件\bs,renterpc 配置文件.txt”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-mesgrept配置文件</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-mesgrept</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version 3.1.1\配置文件\mogoroom-mesgrept配置文件.txt”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送包配置</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送包</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version 3.1.1\配置文件\消息发送包配置.txt”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线进行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行SQL脚本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有业务SQL表结构脚本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张思杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待执行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待执行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version 3.1.1\配置文件\消息发送包配置.txt”</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目工程启动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无新增修改内容</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎部署</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东列表需要显示房东AccountNum，增加房东归属地，增加有查询条件过滤测试房东数据（默认不显示测试房东数据，可以进行通过检索到测试房东数据）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工可以进入系统进行密码修改（必须输入原密码、新密码、新密码确认）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工离职后，系统管理员能够通过禁用账号来限制员工进行登陆。
+员工账号被禁用后，再次登陆页面提醒该账号登陆者（该账号已经被禁用请联系系统管理员 ####）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维通过手机号、关键词、发送时间进行检索得到发送短信列表，列表中显示，手机号、发送时间、发送状态、发送渠道、发送标题、发送内容等。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚海强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲、王龙国、李健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>租客App</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客App、租客Pc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉/吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>租客App</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客Pc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客App、租客Pc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉/吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域、商圈、小区改用缓存数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客Pc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【官网找房】区分区域/商圈、地铁线/地铁站等条件，不要覆盖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龙国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【官网找房】小区作为最后的区域筛选条件被取消后，保持当前地图缩放比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龙国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>找房搜索引擎每次取出地图当前经纬度范围内的房源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【官网找房】选中某个小区后，点击地图空白区域，不作取消选中处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源推荐排序规则实时更新，以达到房态及时同步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春、雷传盛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化分散式房源同步流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春、雷传盛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉卡拉蘑菇宝审核通过开始放款后，租客账单最后应收款日为拉卡拉蘑菇宝放款日。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网找房列表title与品牌名重合问题修复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化租客App订单列表查询速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的账单，修改非自营蘑菇宝的常规款的账单状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网首页底部友链可显示数量增加至50+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏和列表切换时未计算正确的分页问题修复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>app地图小区显示最低价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>app地图按地铁站汇总且统计该地铁站的最低价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生APP仍在测试阶段，后端独立上线，不影响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生APP仍在测试阶段，后端独立上线，不影响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>app房间详情页改造</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁站、地铁线兼容多个同时搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定银行卡，新增一个“账户类型”字段（个人、公司），默认“个人”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客个人资料，可以更改姓名（长度2-10字）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维埋点探测租客端处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【fixbug】修复本人签约时星座不能同步更新到个人资料的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【fixbug】修复”确认蘑菇宝租约“时，个人资料初始化不全的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网“发布房源”文案改为“伙伴登录”。"登录注册"改为"租客登录"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客预定后，房东发起的签约，订单详情“预定信息-&gt;签约时限”隐藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心，订单图片高度优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲、王龙国、李健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Fixbug】房东发起蘑菇宝签约，租客确认租约时，提示工作单位必须指定到”区“</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务分批次抓取数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网房间详情页室友信息（已出租），若入住人或者租客的星座不为空，则显示入住人或租客的星座信息，不应该显示constellation-7，而应该显示金牛座</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【fixbug】蘑菇宝签约提交时，提示“您有蘑菇宝合约未到期”问题的修复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重制官网找房页的已选条件一栏的吸附效果，取消它的组件化，改为一个函数，算法优化，结构优化，整理算法过程到注释中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客App】蘑菇宝审核通过的租客不允许在个人中心修改姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【房东PC】【房东APP】金额类型全部换成BigDecimal类型 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC、房东APP、BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【房东PC】【房东APP】【BS】房态图增加筛选项，能筛选无照片的情况 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>租客Pc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客Pc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客App、租客Pc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客Pc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客App、租客Pc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客Pc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客Pc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客Pc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>裔玲玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王龙国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪林强</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春、雷传盛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周云</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>裔玲玲、王龙国、李健</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪林强</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武孟华</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周云</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王龙国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春、雷传盛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王辉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷传盛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付倒计时计算不准确问题修复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章在memcache中的存储方式重构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【租客PC】房间详情页banner组件优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【租客App】新增退出登录的后端接口，解绑激光推送设备号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有涉及金额的Double改成BigDecimal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【租客App】收藏房源服务端同步</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在safari中进入了蘑菇官网相关操作时直接打开我们的应用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务逻辑中去掉维金Code和下线维金功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域、商圈、小区改用缓存数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【官网找房】区分区域/商圈、地铁线/地铁站等条件，不要覆盖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【官网找房】小区作为最后的区域筛选条件被取消后，保持当前地图缩放比</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>找房搜索引擎每次取出地图当前经纬度范围内的房源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【官网找房】选中某个小区后，点击地图空白区域，不作取消选中处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源推荐排序规则实时更新，以达到房态及时同步</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>简化分散式房源同步流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉卡拉蘑菇宝审核通过开始放款后，租客账单最后应收款日为拉卡拉蘑菇宝放款日。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网找房列表title与品牌名重合问题修复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化租客App订单列表查询速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的账单，修改非自营蘑菇宝的常规款的账单状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网首页底部友链可显示数量增加至50+</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全屏和列表切换时未计算正确的分页问题修复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>app地图小区显示最低价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>app地图按地铁站汇总且统计该地铁站的最低价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>app房间详情页改造</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地铁站、地铁线兼容多个同时搜索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定银行卡，新增一个“账户类型”字段（个人、公司），默认“个人”</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客个人资料，可以更改姓名（长度2-10字）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维埋点探测租客端处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【fixbug】修复本人签约时星座不能同步更新到个人资料的问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【fixbug】修复”确认蘑菇宝租约“时，个人资料初始化不全的问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网“发布房源”文案改为“伙伴登录”。"登录注册"改为"租客登录"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客预定后，房东发起的签约，订单详情“预定信息-&gt;签约时限”隐藏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心，订单图片高度优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【Fixbug】房东发起蘑菇宝签约，租客确认租约时，提示工作单位必须指定到”区“</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务分批次抓取数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网房间详情页室友信息（已出租），若入住人或者租客的星座不为空，则显示入住人或租客的星座信息，不应该显示constellation-7，而应该显示金牛座</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【fixbug】蘑菇宝签约提交时，提示“您有蘑菇宝合约未到期”问题的修复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重制官网找房页的已选条件一栏的吸附效果，取消它的组件化，改为一个函数，算法优化，结构优化，整理算法过程到注释中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【租客App】蘑菇宝审核通过的租客不允许在个人中心修改姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【房东PC】【房东APP】金额类型全部换成BigDecimal类型 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC、房东APP、BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC、房东APP、BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
+    <t>郑良杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】【房东APP】自定义费用默认不全选，房东使用推送账单功能时若无自定义费用则弹出提示指导房东设置自定义费用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC、房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -511,79 +978,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC、房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【房东PC】【房东APP】【BS】去维金功能 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰、吕崇新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>发现组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【房东PC】【房东APP】【BS】房态图增加筛选项，能筛选无照片的情况 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC、房东APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑良杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑良杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东PC】【房东APP】自定义费用默认不全选，房东使用推送账单功能时若无自定义费用则弹出提示指导房东设置自定义费用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC、房东APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李亚林</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李亚林</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东PC】【房东APP】自定义功能优化，默认初始为初级功能，配置后可展开高级功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李亚林</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【房东PC】【房东APP】【BS】去维金功能 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑良杰、吕崇新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组</t>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -599,106 +1022,283 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】PC房态图增加行政区的筛选</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋文、李亚林</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【BS】房东绑卡 银行卡改造成智能插件 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【房东APP】【房东PC】去除小区智能插件查询，更改为小区名称模糊查询 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰、吕崇新、李亚林</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】房态图房源没有加载完点击筛选条件，筛选结果把第一个请求没有加载完的房源也加载出来了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东App】房态图户型过大时，样式显示重叠，具体看截图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈佳文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】异常拦截</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞/邵明基/李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试目前没有发现异常拦截，上线后跟踪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】职业房东录入，必填信息提交错误后，无法再次提交问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类型设置只有双击才能勾选</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>New Features</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东PC】PC房态图增加行政区的筛选</t>
+    <t>房东App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>去维金接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟、崔斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号手机号重复校验机制优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App&amp;房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息自动抓取优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App&amp;房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录租约跳转优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端取消两级消息，在一级消息中展现完整消息内容</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>房东PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【房东PC】【房东APP】房东财务报表优化 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋文、李亚林</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【BS】房东绑卡 银行卡改造成智能插件 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【房东APP】【房东PC】去除小区智能插件查询，更改为小区名称模糊查询 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC、房东APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑良杰、吕崇新、李亚林</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东APP】自定义前端控制账单截止日期大于账单开始日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【房东PC】【房东APP】添加房源时房间号生成规则更改，由A到Z依次生成 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑良杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东PC】房态图房源没有加载完点击筛选条件，筛选结果把第一个请求没有加载完的房源也加载出来了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东App】房态图户型过大时，样式显示重叠，具体看截图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈佳文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东PC】异常拦截</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP财务管理详情页，需要将房源地址一并列出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下合同线上查看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格显示精度问题解决</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉、施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加业主租期整除验证修改（线上问题）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS房东借款审批重复生成费率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录租约起始日期提前至2000年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主身份证非必填</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成买回单的时候，关闭这笔贷款的蘑菇宝相关的账单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞/邵明基/李傲</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信发送通道比例分配修改为实时生效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息独立包</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -706,55 +1306,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>韩美娟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩美娟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>去维金接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩美娟、崔斌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝相关短信模板替换</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子账号手机号重复校验机制优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东App&amp;房东PC</t>
+    <t>闪电组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡修改表设计及接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口开发，暂无功能测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -762,39 +1342,75 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>崔斌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账务列表提现以及冲正，交易费仍为“蘑菇公寓”修改为“蘑菇租房”</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东App&amp;房东PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息自动抓取优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅寰寰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>补录租约跳转优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端取消两级消息，在一级消息中展现完整消息内容</t>
+    <t>苏玉军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户体系迁移老数据，修改接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql脚本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql脚本处理，已审核，暂无功能测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表导出修改为通过poi开发包实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织架构、岗位的设计、接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口开发，暂无功能测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创蓝语音验证码接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥毅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取短信状态独立包的抓点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取短信状态独立包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐燕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大汉三通语音验证码接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化搜索引擎初始化脚本的步骤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -802,154 +1418,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>田东兴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>田东兴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下合同线上查看</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格显示精度问题解决</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加业主租期整除验证修改（线上问题）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东App&amp;房东PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS房东借款审批重复生成费率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>补录租约起始日期提前至2000年</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔斌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业主身份证非必填</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接池参数优化</t>
-  </si>
-  <si>
-    <t>New Features</t>
-  </si>
-  <si>
-    <t>房东App&amp;房东PC</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>姚海强</t>
-  </si>
-  <si>
-    <t>架构组</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>短信健康度统计</t>
-  </si>
-  <si>
-    <t>bs</t>
-  </si>
-  <si>
-    <t>蒙先铭</t>
-  </si>
-  <si>
-    <t>租客订单列表性能优化</t>
-  </si>
-  <si>
-    <t>bugfix</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t>王涛</t>
-  </si>
-  <si>
-    <t>银行卡区分对公对私</t>
-  </si>
-  <si>
-    <t>bs/租客app</t>
-  </si>
-  <si>
-    <t>冯银鹏</t>
-  </si>
-  <si>
-    <t>提现黑名单维护功能</t>
-  </si>
-  <si>
-    <t>关键词拦截功能</t>
-  </si>
-  <si>
-    <t>可用性埋点</t>
-  </si>
-  <si>
-    <t>payapi</t>
-  </si>
-  <si>
-    <t>短信发送通道比例分配修改为实时生效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息独立包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏玉军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏玉军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐燕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷体系接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
+    <t>租客</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -957,367 +1426,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>闪电组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口开发，暂无功能测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡修改表设计及接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱文博</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口开发，暂无功能测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子母账号二期接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户体系迁移老数据，修改接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql脚本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql脚本处理，已审核，暂无功能测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务分批次抓取数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷传盛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表导出修改为通过poi开发包实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱文博</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织架构、岗位的设计、接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏玉军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口开发，暂无功能测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创蓝语音验证码接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>祥毅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取短信状态独立包的抓点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取短信状态独立包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐燕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大汉三通语音验证码接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>简化搜索引擎初始化脚本的步骤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-  </si>
-  <si>
-    <t>区域、商圈、小区改用缓存数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>简化分散式房源同步流程</t>
+    <t>通过</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Apple Pay接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源推荐排序规则实时更新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【BS】职业房东录入，必填信息提交错误后，无法再次提交问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用类型设置只有双击才能勾选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.1项目上线准备执行方案
-（预发布环境先验证一遍）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进展</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量报告检查</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量报告</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前期准备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据初始化脚本准备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务SQL表结构脚本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨斌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请见“SQL_Scripts”</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据初始化脚本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>partnerpc,partner app配置文件.txt</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>partnerpc,partner app</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈铖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见“Version 3.1.1\配置文件\partnerpc,partner app配置文件.txt”</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs,renterpc 配置文件.txt</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs,renterpc</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见“Version 3.1.1\配置文件\bs,renterpc 配置文件.txt”</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-mesgrept配置文件</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoroom-mesgrept</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见“Version 3.1.1\配置文件\mogoroom-mesgrept配置文件.txt”</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送包配置</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送包</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见“Version 3.1.1\配置文件\消息发送包配置.txt”</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线进行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行SQL脚本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有业务SQL表结构脚本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张思杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>待执行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>待执行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见“Version 3.1.1\配置文件\消息发送包配置.txt”</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目工程启动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无新增修改内容</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索引擎部署</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1325,7 +1438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1498,6 +1611,29 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1713,7 +1849,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1804,24 +1940,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1837,24 +1955,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1863,18 +1969,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,14 +1980,74 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="2" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2259,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2352,39 +2506,47 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="19">
         <v>42475</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H2" s="19">
         <v>42475</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="8" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="P2" s="20"/>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="17"/>
       <c r="R2" s="18"/>
       <c r="S2" s="4"/>
     </row>
@@ -2393,39 +2555,47 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F3" s="19">
         <v>42475</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="H3" s="19">
         <v>42475</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="8" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N3" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
       <c r="R3" s="18"/>
       <c r="S3" s="4"/>
     </row>
@@ -2434,39 +2604,47 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="19">
         <v>42475</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="H4" s="19">
         <v>42475</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="8" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
       <c r="R4" s="18"/>
       <c r="S4" s="4"/>
     </row>
@@ -2475,39 +2653,47 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="19">
         <v>42475</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H5" s="19">
         <v>42475</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="8" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N5" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
       <c r="R5" s="18"/>
       <c r="S5" s="4"/>
     </row>
@@ -2516,39 +2702,47 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="19">
         <v>42475</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="H6" s="19">
         <v>42475</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="8" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
       <c r="R6" s="18"/>
       <c r="S6" s="4"/>
     </row>
@@ -2557,39 +2751,47 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F7" s="19">
         <v>42475</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="19">
         <v>42475</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="8" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N7" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
       <c r="R7" s="18"/>
       <c r="S7" s="4"/>
     </row>
@@ -2598,39 +2800,47 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="19">
         <v>42475</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="H8" s="19">
         <v>42475</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
       <c r="S8" s="4"/>
     </row>
@@ -2639,39 +2849,47 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="F9" s="19">
         <v>42475</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H9" s="19">
         <v>42475</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
       <c r="S9" s="4"/>
     </row>
@@ -2680,39 +2898,47 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F10" s="19">
         <v>42475</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="H10" s="19">
         <v>42475</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N10" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
       <c r="S10" s="4"/>
     </row>
@@ -2721,39 +2947,47 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F11" s="19">
         <v>42475</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H11" s="19">
         <v>42475</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="8" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="N11" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
       <c r="R11" s="18"/>
       <c r="S11" s="4"/>
     </row>
@@ -2762,39 +2996,47 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="19">
         <v>42475</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H12" s="19">
         <v>42475</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="8" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N12" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
       <c r="R12" s="18"/>
       <c r="S12" s="4"/>
     </row>
@@ -2803,39 +3045,47 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F13" s="19">
         <v>42475</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="H13" s="19">
         <v>42475</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="8" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N13" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
       <c r="R13" s="18"/>
       <c r="S13" s="4"/>
     </row>
@@ -2844,39 +3094,47 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F14" s="19">
         <v>42475</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="H14" s="19">
         <v>42475</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="8" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
       <c r="R14" s="18"/>
       <c r="S14" s="4"/>
     </row>
@@ -2885,39 +3143,47 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F15" s="19">
         <v>42475</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="19">
         <v>42475</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="8" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
       <c r="R15" s="18"/>
       <c r="S15" s="4"/>
     </row>
@@ -2926,696 +3192,824 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F16" s="19">
         <v>42475</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="H16" s="19">
         <v>42475</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="8" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N16" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
       <c r="R16" s="18"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F17" s="19">
         <v>42475</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H17" s="19">
         <v>42475</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="8" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N17" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
       <c r="R17" s="18"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F18" s="19">
         <v>42475</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H18" s="19">
         <v>42475</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="8" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N18" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F19" s="19">
         <v>42475</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="H19" s="19">
         <v>42475</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="8" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N19" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F20" s="19">
         <v>42475</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="H20" s="19">
         <v>42475</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="8" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N20" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F21" s="19">
         <v>42475</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="H21" s="19">
         <v>42475</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="8" t="s">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N21" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F22" s="19">
         <v>42475</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="H22" s="19">
         <v>42475</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="8" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="20"/>
+        <v>174</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N22" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="19">
+        <v>163</v>
+      </c>
+      <c r="F23" s="55">
         <v>42475</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="19">
-        <v>42475</v>
-      </c>
-      <c r="I23" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="H23" s="55">
+        <v>42475</v>
+      </c>
+      <c r="I23" s="56"/>
       <c r="J23" s="8" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N23" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="27"/>
+    </row>
+    <row r="24" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="19">
+        <v>163</v>
+      </c>
+      <c r="F24" s="55">
         <v>42475</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="19">
-        <v>42475</v>
-      </c>
-      <c r="I24" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="H24" s="55">
+        <v>42475</v>
+      </c>
+      <c r="I24" s="56"/>
       <c r="J24" s="8" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="L24" s="57"/>
       <c r="M24" s="20"/>
       <c r="N24" s="21"/>
       <c r="O24" s="20"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="T24" s="27"/>
+    </row>
+    <row r="25" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="19">
+        <v>163</v>
+      </c>
+      <c r="F25" s="55">
         <v>42475</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="19">
-        <v>42475</v>
-      </c>
-      <c r="I25" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="H25" s="55">
+        <v>42475</v>
+      </c>
+      <c r="I25" s="56"/>
       <c r="J25" s="8" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+      <c r="L25" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N25" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="27"/>
+    </row>
+    <row r="26" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="19">
+        <v>163</v>
+      </c>
+      <c r="F26" s="55">
         <v>42475</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="19">
-        <v>42475</v>
-      </c>
-      <c r="I26" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="H26" s="55">
+        <v>42475</v>
+      </c>
+      <c r="I26" s="56"/>
       <c r="J26" s="8" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="T26" s="27"/>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F27" s="19">
         <v>42475</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H27" s="19">
         <v>42475</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="8" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N27" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F28" s="19">
         <v>42475</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H28" s="19">
         <v>42475</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="8" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N28" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F29" s="19">
         <v>42475</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="H29" s="19">
         <v>42475</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="8" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N29" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F30" s="19">
         <v>42475</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H30" s="19">
         <v>42475</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="8" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N30" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F31" s="19">
         <v>42475</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H31" s="19">
         <v>42475</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="8" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N31" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F32" s="19">
         <v>42475</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H32" s="19">
         <v>42475</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="8" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N32" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
       <c r="S32" s="4"/>
     </row>
     <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -3623,40 +4017,48 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F33" s="19">
         <v>42475</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H33" s="19">
         <v>42475</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="8" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N33" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O33" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
       <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:20" ht="33" x14ac:dyDescent="0.15">
@@ -3664,40 +4066,48 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F34" s="19">
         <v>42475</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H34" s="19">
         <v>42475</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="8" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N34" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
       <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -3705,40 +4115,48 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F35" s="19">
         <v>42475</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H35" s="19">
         <v>42475</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="8" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N35" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -3746,40 +4164,48 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F36" s="19">
         <v>42475</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H36" s="19">
         <v>42475</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="8" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N36" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
       <c r="S36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="33" x14ac:dyDescent="0.15">
@@ -3787,40 +4213,48 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F37" s="19">
         <v>42475</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H37" s="19">
         <v>42475</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="8" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N37" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
       <c r="S37" s="4"/>
     </row>
     <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -3828,40 +4262,48 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F38" s="19">
         <v>42475</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="H38" s="19">
         <v>42475</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="8" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N38" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
       <c r="S38" s="4"/>
     </row>
     <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -3869,40 +4311,42 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F39" s="19">
         <v>42475</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="H39" s="19">
         <v>42475</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="8" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O39" s="20"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
       <c r="S39" s="4"/>
     </row>
     <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
@@ -3910,40 +4354,48 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40" s="19">
         <v>42475</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H40" s="19">
         <v>42475</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="8" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N40" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -3951,41 +4403,49 @@
         <v>40</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="F41" s="21">
         <v>42466</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="H41" s="21">
         <v>42466</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="20" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O41" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="P41" s="25"/>
       <c r="Q41" s="25"/>
       <c r="R41" s="25" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="S41" s="26"/>
       <c r="T41" s="27"/>
@@ -3995,37 +4455,45 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="F42" s="21">
         <v>42466</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="H42" s="21">
         <v>42466</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="20" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L42" s="8"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N42" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O42" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
@@ -4037,37 +4505,45 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F43" s="21">
         <v>42466</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H43" s="21">
         <v>42466</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="20" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L43" s="8"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="20"/>
+        <v>246</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N43" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O43" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
@@ -4079,37 +4555,45 @@
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F44" s="21">
         <v>42468</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="H44" s="21">
         <v>42468</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="20" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N44" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O44" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="P44" s="25"/>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
@@ -4121,42 +4605,50 @@
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="F45" s="21">
         <v>42472</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H45" s="21">
         <v>42472</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="20" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L45" s="8"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="20"/>
+        <v>252</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N45" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O45" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P45" s="25"/>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
       <c r="S45" s="29" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="T45" s="27"/>
     </row>
@@ -4165,37 +4657,45 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F46" s="21">
         <v>42474</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="H46" s="21">
         <v>42474</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="20" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L46" s="8"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="20"/>
+        <v>259</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N46" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O46" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P46" s="25"/>
       <c r="Q46" s="25"/>
       <c r="R46" s="25"/>
@@ -4207,37 +4707,45 @@
         <v>46</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="F47" s="21">
         <v>42474</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H47" s="21">
         <v>42474</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="20" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="20"/>
+        <v>246</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M47" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N47" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O47" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P47" s="25"/>
       <c r="Q47" s="25"/>
       <c r="R47" s="25"/>
@@ -4249,37 +4757,45 @@
         <v>47</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F48" s="21">
         <v>42478</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="H48" s="21">
         <v>42478</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="20" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L48" s="8"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="20"/>
+        <v>259</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="M48" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N48" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O48" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="P48" s="25"/>
       <c r="Q48" s="25"/>
       <c r="R48" s="25"/>
@@ -4291,37 +4807,45 @@
         <v>48</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F49" s="21">
         <v>42478</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="H49" s="21">
         <v>42478</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="20" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L49" s="8"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="20"/>
+        <v>259</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M49" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N49" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O49" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
@@ -4333,37 +4857,45 @@
         <v>49</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F50" s="21">
         <v>42478</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="H50" s="21">
         <v>42478</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="20" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L50" s="8"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N50" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O50" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
@@ -4375,37 +4907,45 @@
         <v>50</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="F51" s="21">
         <v>42478</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="H51" s="21">
         <v>42478</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="20" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L51" s="8"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M51" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N51" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O51" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
       <c r="R51" s="25"/>
@@ -4417,38 +4957,48 @@
         <v>51</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F52" s="21">
         <v>42478</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H52" s="21">
         <v>42478</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="20" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L52" s="8"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="25"/>
+        <v>259</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="M52" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N52" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O52" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P52" s="25">
+        <v>1559</v>
+      </c>
       <c r="Q52" s="25"/>
       <c r="R52" s="25"/>
       <c r="S52" s="26"/>
@@ -4459,39 +5009,47 @@
         <v>52</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="F53" s="21">
         <v>42478</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="H53" s="21">
         <v>42478</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="20" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L53" s="8"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="20"/>
+        <v>259</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="M53" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N53" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O53" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P53" s="25">
-        <v>1559</v>
+        <v>1574</v>
       </c>
       <c r="Q53" s="25"/>
       <c r="R53" s="25"/>
@@ -4503,43 +5061,51 @@
         <v>53</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="F54" s="21">
         <v>42478</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H54" s="21">
         <v>42478</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="20" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L54" s="8"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="25">
-        <v>1574</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="M54" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N54" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O54" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P54" s="25"/>
       <c r="Q54" s="25"/>
       <c r="R54" s="25"/>
-      <c r="S54" s="26"/>
+      <c r="S54" s="26" t="s">
+        <v>277</v>
+      </c>
       <c r="T54" s="27"/>
     </row>
     <row r="55" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -4547,40 +5113,48 @@
         <v>54</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="F55" s="21">
         <v>42478</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H55" s="21">
         <v>42478</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="20" t="s">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L55" s="8"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
+        <v>259</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N55" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O55" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
       <c r="S55" s="26"/>
       <c r="T55" s="27"/>
     </row>
@@ -4588,23 +5162,23 @@
       <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="24" t="s">
-        <v>278</v>
+      <c r="B56" s="34" t="s">
+        <v>279</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F56" s="21">
         <v>42478</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="H56" s="21">
         <v>42478</v>
@@ -4614,12 +5188,20 @@
         <v>280</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L56" s="8"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="20"/>
+        <v>252</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="M56" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N56" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O56" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P56" s="17"/>
       <c r="Q56" s="17"/>
       <c r="R56" s="17"/>
@@ -4630,41 +5212,51 @@
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D57" s="8" t="s">
-        <v>150</v>
+        <v>282</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="F57" s="21">
         <v>42478</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="H57" s="21">
         <v>42478</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="20" t="s">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="L57" s="8"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
+      <c r="L57" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="M57" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N57" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O57" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="S57" s="26"/>
       <c r="T57" s="27"/>
     </row>
@@ -4673,41 +5265,49 @@
         <v>57</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F58" s="21">
         <v>42478</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="H58" s="21">
         <v>42478</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="20" t="s">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L58" s="8"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="20"/>
+        <v>288</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="M58" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N58" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O58" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="P58" s="25"/>
       <c r="Q58" s="25"/>
       <c r="R58" s="25" t="s">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="S58" s="26"/>
       <c r="T58" s="27"/>
@@ -4717,40 +5317,50 @@
         <v>58</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F59" s="21">
         <v>42478</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="H59" s="21">
         <v>42478</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="20" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L59" s="8"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="M59" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="N59" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O59" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="P59" s="25"/>
       <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
+      <c r="R59" s="25" t="s">
+        <v>295</v>
+      </c>
       <c r="S59" s="26"/>
       <c r="T59" s="27"/>
     </row>
@@ -4759,40 +5369,50 @@
         <v>59</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="F60" s="21">
         <v>42478</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H60" s="21">
         <v>42478</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="20" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L60" s="8"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="20"/>
+        <v>297</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M60" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N60" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O60" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
+      <c r="R60" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="S60" s="26"/>
       <c r="T60" s="27"/>
     </row>
@@ -4801,40 +5421,50 @@
         <v>60</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="F61" s="21">
         <v>42478</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="H61" s="21">
         <v>42478</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="20" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L61" s="8"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="20"/>
+        <v>288</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="M61" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N61" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O61" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="P61" s="25"/>
       <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
+      <c r="R61" s="25" t="s">
+        <v>302</v>
+      </c>
       <c r="S61" s="26"/>
       <c r="T61" s="27"/>
     </row>
@@ -4843,40 +5473,50 @@
         <v>61</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F62" s="21">
         <v>42478</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="H62" s="21">
         <v>42478</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="20" t="s">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="L62" s="8"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="20"/>
+        <v>297</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="M62" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="N62" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O62" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="P62" s="25"/>
       <c r="Q62" s="25"/>
-      <c r="R62" s="25"/>
+      <c r="R62" s="25" t="s">
+        <v>291</v>
+      </c>
       <c r="S62" s="26"/>
       <c r="T62" s="27"/>
     </row>
@@ -4885,40 +5525,50 @@
         <v>62</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>28</v>
+        <v>307</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="F63" s="21">
         <v>42478</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H63" s="21">
         <v>42478</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="20" t="s">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L63" s="8"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="20"/>
+        <v>288</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="M63" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N63" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O63" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="P63" s="25"/>
       <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
+      <c r="R63" s="25" t="s">
+        <v>291</v>
+      </c>
       <c r="S63" s="26"/>
       <c r="T63" s="27"/>
     </row>
@@ -4927,40 +5577,50 @@
         <v>63</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>193</v>
+        <v>309</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>194</v>
+        <v>310</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F64" s="21">
         <v>42478</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H64" s="21">
         <v>42478</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="M64" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N64" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O64" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="K64" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L64" s="8"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="20"/>
       <c r="P64" s="25"/>
       <c r="Q64" s="25"/>
-      <c r="R64" s="25"/>
+      <c r="R64" s="25" t="s">
+        <v>291</v>
+      </c>
       <c r="S64" s="26"/>
       <c r="T64" s="27"/>
     </row>
@@ -4969,40 +5629,50 @@
         <v>64</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="F65" s="21">
         <v>42478</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H65" s="21">
         <v>42478</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="20" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L65" s="8"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="20"/>
+        <v>297</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="M65" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N65" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O65" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P65" s="25"/>
       <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
+      <c r="R65" s="25" t="s">
+        <v>291</v>
+      </c>
       <c r="S65" s="26"/>
       <c r="T65" s="27"/>
     </row>
@@ -5011,40 +5681,50 @@
         <v>65</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F66" s="21">
         <v>42478</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H66" s="21">
         <v>42478</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="20" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L66" s="8"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="20"/>
+        <v>288</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="M66" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N66" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O66" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P66" s="25"/>
       <c r="Q66" s="25"/>
-      <c r="R66" s="25"/>
+      <c r="R66" s="25" t="s">
+        <v>302</v>
+      </c>
       <c r="S66" s="26"/>
       <c r="T66" s="27"/>
     </row>
@@ -5053,40 +5733,50 @@
         <v>66</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F67" s="21">
         <v>42478</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="H67" s="21">
         <v>42478</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="20" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L67" s="8"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="20"/>
+        <v>288</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="M67" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N67" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O67" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P67" s="25"/>
       <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
+      <c r="R67" s="25" t="s">
+        <v>302</v>
+      </c>
       <c r="S67" s="26"/>
       <c r="T67" s="27"/>
     </row>
@@ -5095,40 +5785,50 @@
         <v>67</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>203</v>
+        <v>317</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F68" s="21">
         <v>42478</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="H68" s="21">
         <v>42478</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="20" t="s">
-        <v>199</v>
+        <v>314</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L68" s="8"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="20"/>
+        <v>288</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="M68" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N68" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O68" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P68" s="25"/>
       <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
+      <c r="R68" s="25" t="s">
+        <v>291</v>
+      </c>
       <c r="S68" s="26"/>
       <c r="T68" s="27"/>
     </row>
@@ -5137,40 +5837,50 @@
         <v>68</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>205</v>
+        <v>318</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F69" s="21">
         <v>42478</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H69" s="21">
         <v>42478</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="20" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L69" s="8"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="20"/>
+        <v>288</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M69" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N69" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O69" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P69" s="25"/>
       <c r="Q69" s="25"/>
-      <c r="R69" s="25"/>
+      <c r="R69" s="25" t="s">
+        <v>302</v>
+      </c>
       <c r="S69" s="26"/>
       <c r="T69" s="27"/>
     </row>
@@ -5179,40 +5889,50 @@
         <v>69</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F70" s="21">
         <v>42478</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H70" s="21">
         <v>42478</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="20" t="s">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L70" s="8"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="20"/>
+        <v>288</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M70" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N70" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O70" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P70" s="25"/>
       <c r="Q70" s="25"/>
-      <c r="R70" s="25"/>
+      <c r="R70" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="S70" s="26"/>
       <c r="T70" s="27"/>
     </row>
@@ -5221,382 +5941,414 @@
         <v>70</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>209</v>
+        <v>320</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="F71" s="21">
         <v>42478</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="H71" s="21">
         <v>42478</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="20" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L71" s="8"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="20"/>
+        <v>259</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="M71" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N71" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O71" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P71" s="25"/>
       <c r="Q71" s="25"/>
-      <c r="R71" s="25"/>
+      <c r="R71" s="25" t="s">
+        <v>291</v>
+      </c>
       <c r="S71" s="26"/>
       <c r="T71" s="27"/>
     </row>
-    <row r="72" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72" s="32">
-        <v>42475</v>
-      </c>
-      <c r="G72" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H72" s="32">
-        <v>42475</v>
-      </c>
-      <c r="I72" s="31"/>
-      <c r="J72" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="K72" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="L72" s="31"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="S72" s="35"/>
-      <c r="T72" s="36"/>
-    </row>
-    <row r="73" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B72" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="63">
+        <v>42475</v>
+      </c>
+      <c r="G72" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" s="63">
+        <v>42475</v>
+      </c>
+      <c r="I72" s="62"/>
+      <c r="J72" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="K72" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="L72" s="62"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="64"/>
+      <c r="P72" s="65"/>
+      <c r="Q72" s="65"/>
+      <c r="R72" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="S72" s="66"/>
+      <c r="T72" s="30"/>
+    </row>
+    <row r="73" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F73" s="32">
-        <v>42475</v>
-      </c>
-      <c r="G73" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H73" s="32">
-        <v>42475</v>
-      </c>
-      <c r="I73" s="31"/>
-      <c r="J73" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="K73" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="L73" s="31"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="36"/>
-    </row>
-    <row r="74" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B73" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="63">
+        <v>42475</v>
+      </c>
+      <c r="G73" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" s="63">
+        <v>42475</v>
+      </c>
+      <c r="I73" s="62"/>
+      <c r="J73" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="K73" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="L73" s="62"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="63"/>
+      <c r="O73" s="64"/>
+      <c r="P73" s="65"/>
+      <c r="Q73" s="65"/>
+      <c r="R73" s="65"/>
+      <c r="S73" s="66"/>
+      <c r="T73" s="30"/>
+    </row>
+    <row r="74" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F74" s="32">
-        <v>42475</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H74" s="32">
-        <v>42475</v>
-      </c>
-      <c r="I74" s="31"/>
-      <c r="J74" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="K74" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="L74" s="31"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="36"/>
-    </row>
-    <row r="75" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B74" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F74" s="63">
+        <v>42475</v>
+      </c>
+      <c r="G74" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" s="63">
+        <v>42475</v>
+      </c>
+      <c r="I74" s="62"/>
+      <c r="J74" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="K74" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="L74" s="62"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="63"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="65"/>
+      <c r="Q74" s="65"/>
+      <c r="R74" s="65"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="30"/>
+    </row>
+    <row r="75" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F75" s="32">
-        <v>42475</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H75" s="32">
-        <v>42475</v>
-      </c>
-      <c r="I75" s="31"/>
-      <c r="J75" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="K75" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="L75" s="31"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="33"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="36"/>
-    </row>
-    <row r="76" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B75" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="63">
+        <v>42475</v>
+      </c>
+      <c r="G75" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="63">
+        <v>42475</v>
+      </c>
+      <c r="I75" s="62"/>
+      <c r="J75" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K75" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="L75" s="62"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="64"/>
+      <c r="P75" s="65"/>
+      <c r="Q75" s="65"/>
+      <c r="R75" s="65"/>
+      <c r="S75" s="66"/>
+      <c r="T75" s="30"/>
+    </row>
+    <row r="76" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F76" s="32">
-        <v>42475</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H76" s="32">
-        <v>42475</v>
-      </c>
-      <c r="I76" s="31"/>
-      <c r="J76" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="K76" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="L76" s="31"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="36"/>
-    </row>
-    <row r="77" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B76" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F76" s="63">
+        <v>42475</v>
+      </c>
+      <c r="G76" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" s="63">
+        <v>42475</v>
+      </c>
+      <c r="I76" s="62"/>
+      <c r="J76" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K76" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="L76" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="M76" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N76" s="63">
+        <v>42480</v>
+      </c>
+      <c r="O76" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="65"/>
+      <c r="R76" s="65"/>
+      <c r="S76" s="66"/>
+      <c r="T76" s="30"/>
+    </row>
+    <row r="77" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F77" s="32">
-        <v>42475</v>
-      </c>
-      <c r="G77" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H77" s="32">
-        <v>42475</v>
-      </c>
-      <c r="I77" s="31"/>
-      <c r="J77" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="K77" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="L77" s="31"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="32"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="36"/>
-    </row>
-    <row r="78" spans="1:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B77" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="63">
+        <v>42475</v>
+      </c>
+      <c r="G77" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" s="63">
+        <v>42475</v>
+      </c>
+      <c r="I77" s="62"/>
+      <c r="J77" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K77" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="L77" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="M77" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N77" s="63">
+        <v>42479</v>
+      </c>
+      <c r="O77" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="P77" s="65"/>
+      <c r="Q77" s="65"/>
+      <c r="R77" s="65"/>
+      <c r="S77" s="66"/>
+      <c r="T77" s="30"/>
+    </row>
+    <row r="78" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F78" s="32">
-        <v>42475</v>
-      </c>
-      <c r="G78" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H78" s="32">
-        <v>42475</v>
-      </c>
-      <c r="I78" s="31"/>
-      <c r="J78" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="K78" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="L78" s="31"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="33"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
-      <c r="S78" s="35"/>
-      <c r="T78" s="36"/>
+      <c r="B78" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F78" s="63">
+        <v>42475</v>
+      </c>
+      <c r="G78" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78" s="63">
+        <v>42475</v>
+      </c>
+      <c r="I78" s="62"/>
+      <c r="J78" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K78" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="L78" s="62"/>
+      <c r="M78" s="64"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="64"/>
+      <c r="P78" s="65"/>
+      <c r="Q78" s="65"/>
+      <c r="R78" s="65"/>
+      <c r="S78" s="66"/>
+      <c r="T78" s="30"/>
     </row>
     <row r="79" spans="1:20" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F79" s="21">
         <v>42478</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="H79" s="21">
         <v>42478</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M79" s="20"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="20"/>
+        <v>285</v>
+      </c>
+      <c r="M79" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N79" s="21">
+        <v>42480</v>
+      </c>
+      <c r="O79" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="P79" s="25"/>
       <c r="Q79" s="25"/>
-      <c r="R79" s="38"/>
+      <c r="R79" s="32"/>
       <c r="S79" s="26" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="T79" s="27"/>
     </row>
@@ -5605,32 +6357,32 @@
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>239</v>
+        <v>330</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F80" s="21">
         <v>42478</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="H80" s="21">
         <v>42478</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
@@ -5638,9 +6390,9 @@
       <c r="O80" s="20"/>
       <c r="P80" s="25"/>
       <c r="Q80" s="25"/>
-      <c r="R80" s="38"/>
+      <c r="R80" s="32"/>
       <c r="S80" s="26" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="T80" s="27"/>
     </row>
@@ -5649,32 +6401,32 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="F81" s="21">
         <v>42478</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H81" s="21">
         <v>42478</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="L81" s="20"/>
       <c r="M81" s="20"/>
@@ -5682,9 +6434,9 @@
       <c r="O81" s="20"/>
       <c r="P81" s="25"/>
       <c r="Q81" s="25"/>
-      <c r="R81" s="38"/>
+      <c r="R81" s="32"/>
       <c r="S81" s="26" t="s">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="T81" s="27"/>
     </row>
@@ -5693,32 +6445,32 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>248</v>
+        <v>97</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="F82" s="21">
         <v>42478</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="H82" s="21">
         <v>42478</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="20"/>
@@ -5726,9 +6478,9 @@
       <c r="O82" s="20"/>
       <c r="P82" s="25"/>
       <c r="Q82" s="25"/>
-      <c r="R82" s="38"/>
+      <c r="R82" s="32"/>
       <c r="S82" s="26" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="T82" s="27"/>
     </row>
@@ -5737,32 +6489,32 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F83" s="21">
         <v>42478</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H83" s="21">
         <v>42478</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="L83" s="8"/>
       <c r="M83" s="20"/>
@@ -5770,9 +6522,9 @@
       <c r="O83" s="20"/>
       <c r="P83" s="25"/>
       <c r="Q83" s="25"/>
-      <c r="R83" s="38"/>
+      <c r="R83" s="32"/>
       <c r="S83" s="26" t="s">
-        <v>251</v>
+        <v>340</v>
       </c>
       <c r="T83" s="27"/>
     </row>
@@ -5781,44 +6533,50 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="F84" s="21">
         <v>42478</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H84" s="21">
         <v>42478</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="M84" s="20"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="20"/>
+        <v>183</v>
+      </c>
+      <c r="M84" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N84" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O84" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P84" s="25"/>
       <c r="Q84" s="25"/>
-      <c r="R84" s="38"/>
+      <c r="R84" s="32"/>
       <c r="S84" s="26" t="s">
-        <v>257</v>
+        <v>92</v>
       </c>
       <c r="T84" s="27"/>
     </row>
@@ -5827,44 +6585,50 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F85" s="21">
         <v>42478</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H85" s="21">
         <v>42478</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="M85" s="20"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="20"/>
+        <v>343</v>
+      </c>
+      <c r="M85" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N85" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O85" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P85" s="25"/>
       <c r="Q85" s="25"/>
-      <c r="R85" s="39"/>
+      <c r="R85" s="33"/>
       <c r="S85" s="26" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="T85" s="27"/>
     </row>
@@ -5873,32 +6637,32 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="F86" s="21">
         <v>42478</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>186</v>
+        <v>327</v>
       </c>
       <c r="H86" s="21">
         <v>42478</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="20"/>
@@ -5906,9 +6670,9 @@
       <c r="O86" s="20"/>
       <c r="P86" s="25"/>
       <c r="Q86" s="25"/>
-      <c r="R86" s="39"/>
+      <c r="R86" s="33"/>
       <c r="S86" s="26" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="T86" s="27"/>
     </row>
@@ -5917,32 +6681,32 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F87" s="21">
         <v>42478</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H87" s="21">
         <v>42478</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="20"/>
@@ -5950,9 +6714,9 @@
       <c r="O87" s="20"/>
       <c r="P87" s="25"/>
       <c r="Q87" s="25"/>
-      <c r="R87" s="39"/>
+      <c r="R87" s="33"/>
       <c r="S87" s="26" t="s">
-        <v>247</v>
+        <v>346</v>
       </c>
       <c r="T87" s="27"/>
     </row>
@@ -5961,44 +6725,50 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>268</v>
+        <v>350</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="F88" s="21">
         <v>42478</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H88" s="21">
         <v>42478</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="M88" s="20"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="20"/>
+        <v>351</v>
+      </c>
+      <c r="M88" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N88" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O88" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
-      <c r="R88" s="39"/>
+      <c r="R88" s="33"/>
       <c r="S88" s="26" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="T88" s="27"/>
     </row>
@@ -6007,32 +6777,32 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F89" s="21">
         <v>42478</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H89" s="21">
         <v>42478</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="L89" s="8"/>
       <c r="M89" s="20"/>
@@ -6040,9 +6810,9 @@
       <c r="O89" s="20"/>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
-      <c r="R89" s="39"/>
+      <c r="R89" s="33"/>
       <c r="S89" s="26" t="s">
-        <v>247</v>
+        <v>346</v>
       </c>
       <c r="T89" s="27"/>
     </row>
@@ -6051,44 +6821,50 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>139</v>
+        <v>355</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="F90" s="21">
         <v>42478</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H90" s="21">
         <v>42478</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8" t="s">
-        <v>240</v>
+        <v>357</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="M90" s="20"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="M90" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="N90" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O90" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
-      <c r="R90" s="39"/>
+      <c r="R90" s="33"/>
       <c r="S90" s="26" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
       <c r="T90" s="27"/>
     </row>
@@ -6097,44 +6873,50 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F91" s="21">
         <v>42478</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="H91" s="21">
         <v>42478</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="M91" s="20"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="M91" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N91" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O91" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
-      <c r="R91" s="39"/>
+      <c r="R91" s="33"/>
       <c r="S91" s="26" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="T91" s="27"/>
     </row>
@@ -6143,44 +6925,50 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F92" s="21">
         <v>42478</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H92" s="21">
         <v>42478</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="M92" s="20"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="M92" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N92" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O92" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
-      <c r="R92" s="39"/>
+      <c r="R92" s="33"/>
       <c r="S92" s="26" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="T92" s="27"/>
     </row>
@@ -6189,32 +6977,32 @@
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F93" s="21">
         <v>42478</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H93" s="21">
         <v>42478</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="L93" s="8"/>
       <c r="M93" s="20"/>
@@ -6222,9 +7010,9 @@
       <c r="O93" s="20"/>
       <c r="P93" s="17"/>
       <c r="Q93" s="17"/>
-      <c r="R93" s="39"/>
+      <c r="R93" s="33"/>
       <c r="S93" s="26" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="T93" s="27"/>
     </row>
@@ -6233,44 +7021,50 @@
         <v>93</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F94" s="21">
         <v>42478</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="H94" s="21">
         <v>42478</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="M94" s="20"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="M94" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N94" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O94" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="P94" s="17"/>
       <c r="Q94" s="17"/>
-      <c r="R94" s="39"/>
+      <c r="R94" s="33"/>
       <c r="S94" s="26" t="s">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="T94" s="27"/>
     </row>
@@ -6279,117 +7073,247 @@
         <v>94</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F95" s="21">
         <v>42478</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="H95" s="21">
         <v>42478</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="M95" s="20"/>
-      <c r="N95" s="21"/>
-      <c r="O95" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="M95" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N95" s="21">
+        <v>42479</v>
+      </c>
+      <c r="O95" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="P95" s="17"/>
       <c r="Q95" s="17"/>
-      <c r="R95" s="39"/>
+      <c r="R95" s="33"/>
       <c r="S95" s="26" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="T95" s="27"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A96" s="7"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="5"/>
+    <row r="96" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+      <c r="A96" s="8">
+        <v>95</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="21">
+        <v>42473</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" s="21">
+        <v>42473</v>
+      </c>
       <c r="I96" s="6"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="4"/>
+      <c r="J96" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N96" s="21">
+        <v>42475</v>
+      </c>
+      <c r="O96" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="33"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A97" s="7"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="5"/>
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A97" s="8">
+        <v>96</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="21">
+        <v>42473</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" s="21">
+        <v>42473</v>
+      </c>
       <c r="I97" s="6"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="4"/>
+      <c r="J97" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N97" s="21">
+        <v>42475</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="33"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A98" s="7"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="5"/>
+    <row r="98" spans="1:19" ht="33" x14ac:dyDescent="0.15">
+      <c r="A98" s="8">
+        <v>97</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" s="21">
+        <v>42474</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H98" s="21">
+        <v>42474</v>
+      </c>
       <c r="I98" s="6"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="4"/>
+      <c r="J98" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M98" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N98" s="21">
+        <v>42475</v>
+      </c>
+      <c r="O98" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="33"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A99" s="7"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="5"/>
+    <row r="99" spans="1:19" ht="33" x14ac:dyDescent="0.15">
+      <c r="A99" s="8">
+        <v>98</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="21">
+        <v>42474</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="21">
+        <v>42474</v>
+      </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="4"/>
+      <c r="J99" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N99" s="21">
+        <v>42475</v>
+      </c>
+      <c r="O99" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="33"/>
       <c r="S99" s="4"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.15">
@@ -6408,6 +7332,9 @@
       <c r="M100" s="7"/>
       <c r="N100" s="5"/>
       <c r="O100" s="4"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="33"/>
       <c r="S100" s="4"/>
     </row>
   </sheetData>
@@ -6657,394 +7584,394 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="43" customWidth="1"/>
-    <col min="5" max="5" width="38" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="53.625" style="60" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="10.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="35" customWidth="1"/>
+    <col min="5" max="5" width="38" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="53.625" style="44" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>294</v>
+      <c r="A2" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="44">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="46">
+      <c r="A4" s="52">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="48" t="s">
-        <v>303</v>
+      <c r="B4" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="38" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="48" t="s">
-        <v>303</v>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="38" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="48" t="s">
-        <v>309</v>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="38" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="48" t="s">
-        <v>312</v>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="38" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="48" t="s">
-        <v>315</v>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="38" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="48" t="s">
-        <v>318</v>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="38" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="52">
+      <c r="A10" s="45">
         <v>3</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>323</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="56" t="s">
-        <v>303</v>
+      <c r="B10" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="42" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="56" t="s">
-        <v>303</v>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="42" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="48" t="s">
-        <v>309</v>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="38" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="48" t="s">
-        <v>312</v>
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="38" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="48" t="s">
-        <v>315</v>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="38" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="48" t="s">
-        <v>326</v>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="38" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="56"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="56"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C15"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_ALL.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_ALL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version3.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="361">
   <si>
     <t>No</t>
   </si>
@@ -1278,167 +1278,166 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>短信发送通道比例分配修改为实时生效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息独立包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡修改表设计及接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口开发，暂无功能测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户体系迁移老数据，修改接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql脚本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql脚本处理，已审核，暂无功能测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表导出修改为通过poi开发包实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织架构、岗位的设计、接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口开发，暂无功能测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创蓝语音验证码接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥毅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取短信状态独立包的抓点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取短信状态独立包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐燕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大汉三通语音验证码接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化搜索引擎初始化脚本的步骤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Pay接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵良智</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>黄展明</t>
+  </si>
+  <si>
     <t>余星赞</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>余星赞/邵明基/李傲</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信发送通道比例分配修改为实时生效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息独立包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡修改表设计及接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱文博</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口开发，暂无功能测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏玉军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户体系迁移老数据，修改接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql脚本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql脚本处理，已审核，暂无功能测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表导出修改为通过poi开发包实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱文博</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织架构、岗位的设计、接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口开发，暂无功能测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创蓝语音验证码接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>祥毅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取短信状态独立包的抓点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取短信状态独立包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐燕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大汉三通语音验证码接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>简化搜索引擎初始化脚本的步骤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安栋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apple Pay接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1611,12 +1610,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1983,6 +1976,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2013,41 +2039,8 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="2" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2413,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S80" sqref="S80:S83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3546,23 +3539,23 @@
       <c r="E23" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="45">
         <v>42475</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="55">
-        <v>42475</v>
-      </c>
-      <c r="I23" s="56"/>
+      <c r="H23" s="45">
+        <v>42475</v>
+      </c>
+      <c r="I23" s="46"/>
       <c r="J23" s="8" t="s">
         <v>182</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="L23" s="57" t="s">
+      <c r="L23" s="47" t="s">
         <v>183</v>
       </c>
       <c r="M23" s="20" t="s">
@@ -3574,10 +3567,10 @@
       <c r="O23" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="59"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="49"/>
       <c r="T23" s="27"/>
     </row>
     <row r="24" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -3596,30 +3589,30 @@
       <c r="E24" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="45">
         <v>42475</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="55">
-        <v>42475</v>
-      </c>
-      <c r="I24" s="56"/>
+      <c r="H24" s="45">
+        <v>42475</v>
+      </c>
+      <c r="I24" s="46"/>
       <c r="J24" s="8" t="s">
         <v>182</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="L24" s="57"/>
+      <c r="L24" s="47"/>
       <c r="M24" s="20"/>
       <c r="N24" s="21"/>
       <c r="O24" s="20"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="56" t="s">
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="46" t="s">
         <v>212</v>
       </c>
       <c r="T24" s="27"/>
@@ -3640,23 +3633,23 @@
       <c r="E25" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="45">
         <v>42475</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H25" s="55">
-        <v>42475</v>
-      </c>
-      <c r="I25" s="56"/>
+      <c r="H25" s="45">
+        <v>42475</v>
+      </c>
+      <c r="I25" s="46"/>
       <c r="J25" s="8" t="s">
         <v>182</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="L25" s="57" t="s">
+      <c r="L25" s="47" t="s">
         <v>183</v>
       </c>
       <c r="M25" s="20" t="s">
@@ -3668,10 +3661,10 @@
       <c r="O25" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="59"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="49"/>
       <c r="T25" s="27"/>
     </row>
     <row r="26" spans="1:20" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -3690,30 +3683,30 @@
       <c r="E26" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F26" s="45">
         <v>42475</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H26" s="55">
-        <v>42475</v>
-      </c>
-      <c r="I26" s="56"/>
+      <c r="H26" s="45">
+        <v>42475</v>
+      </c>
+      <c r="I26" s="46"/>
       <c r="J26" s="8" t="s">
         <v>182</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="56" t="s">
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="46" t="s">
         <v>211</v>
       </c>
       <c r="T26" s="27"/>
@@ -5992,312 +5985,352 @@
       <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="61" t="s">
+      <c r="B72" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="62" t="s">
+      <c r="C72" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="62" t="s">
+      <c r="D72" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="62" t="s">
+      <c r="E72" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="63">
-        <v>42475</v>
-      </c>
-      <c r="G72" s="63" t="s">
+      <c r="F72" s="53">
+        <v>42475</v>
+      </c>
+      <c r="G72" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H72" s="63">
-        <v>42475</v>
-      </c>
-      <c r="I72" s="62"/>
-      <c r="J72" s="64" t="s">
+      <c r="H72" s="53">
+        <v>42475</v>
+      </c>
+      <c r="I72" s="52"/>
+      <c r="J72" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="K72" s="62" t="s">
+      <c r="K72" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="L72" s="62"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="63"/>
-      <c r="O72" s="64"/>
-      <c r="P72" s="65"/>
-      <c r="Q72" s="65"/>
-      <c r="R72" s="65" t="s">
+      <c r="L72" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="M72" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N72" s="53">
+        <v>42480</v>
+      </c>
+      <c r="O72" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="P72" s="66"/>
+      <c r="Q72" s="66"/>
+      <c r="R72" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="S72" s="66"/>
+      <c r="S72" s="55"/>
       <c r="T72" s="30"/>
     </row>
     <row r="73" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="62" t="s">
+      <c r="D73" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E73" s="62" t="s">
+      <c r="E73" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F73" s="63">
-        <v>42475</v>
-      </c>
-      <c r="G73" s="63" t="s">
+      <c r="F73" s="53">
+        <v>42475</v>
+      </c>
+      <c r="G73" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H73" s="63">
-        <v>42475</v>
-      </c>
-      <c r="I73" s="62"/>
-      <c r="J73" s="64" t="s">
+      <c r="H73" s="53">
+        <v>42475</v>
+      </c>
+      <c r="I73" s="52"/>
+      <c r="J73" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="K73" s="62" t="s">
+      <c r="K73" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="L73" s="62"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="64"/>
-      <c r="P73" s="65"/>
-      <c r="Q73" s="65"/>
-      <c r="R73" s="65"/>
-      <c r="S73" s="66"/>
+      <c r="L73" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="M73" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N73" s="53">
+        <v>42480</v>
+      </c>
+      <c r="O73" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="P73" s="66"/>
+      <c r="Q73" s="66"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="55"/>
       <c r="T73" s="30"/>
     </row>
     <row r="74" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="61" t="s">
+      <c r="B74" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="62" t="s">
+      <c r="C74" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D74" s="62" t="s">
+      <c r="D74" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E74" s="62" t="s">
+      <c r="E74" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="63">
-        <v>42475</v>
-      </c>
-      <c r="G74" s="63" t="s">
+      <c r="F74" s="53">
+        <v>42475</v>
+      </c>
+      <c r="G74" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H74" s="63">
-        <v>42475</v>
-      </c>
-      <c r="I74" s="62"/>
-      <c r="J74" s="64" t="s">
+      <c r="H74" s="53">
+        <v>42475</v>
+      </c>
+      <c r="I74" s="52"/>
+      <c r="J74" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="K74" s="62" t="s">
+      <c r="K74" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="L74" s="62"/>
-      <c r="M74" s="64"/>
-      <c r="N74" s="63"/>
-      <c r="O74" s="64"/>
-      <c r="P74" s="65"/>
-      <c r="Q74" s="65"/>
-      <c r="R74" s="65"/>
-      <c r="S74" s="66"/>
+      <c r="L74" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="M74" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N74" s="53">
+        <v>42480</v>
+      </c>
+      <c r="O74" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="66"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="55"/>
       <c r="T74" s="30"/>
     </row>
     <row r="75" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="61" t="s">
+      <c r="B75" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="62" t="s">
+      <c r="D75" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E75" s="62" t="s">
+      <c r="E75" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F75" s="63">
-        <v>42475</v>
-      </c>
-      <c r="G75" s="63" t="s">
+      <c r="F75" s="53">
+        <v>42475</v>
+      </c>
+      <c r="G75" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H75" s="63">
-        <v>42475</v>
-      </c>
-      <c r="I75" s="62"/>
-      <c r="J75" s="64" t="s">
+      <c r="H75" s="53">
+        <v>42475</v>
+      </c>
+      <c r="I75" s="52"/>
+      <c r="J75" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="K75" s="62" t="s">
+      <c r="K75" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="L75" s="62"/>
-      <c r="M75" s="64"/>
-      <c r="N75" s="63"/>
-      <c r="O75" s="64"/>
-      <c r="P75" s="65"/>
-      <c r="Q75" s="65"/>
-      <c r="R75" s="65"/>
-      <c r="S75" s="66"/>
+      <c r="L75" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="M75" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N75" s="53">
+        <v>42479</v>
+      </c>
+      <c r="O75" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="P75" s="66"/>
+      <c r="Q75" s="66"/>
+      <c r="R75" s="66"/>
+      <c r="S75" s="55"/>
       <c r="T75" s="30"/>
     </row>
     <row r="76" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="61" t="s">
+      <c r="B76" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="62" t="s">
+      <c r="C76" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="62" t="s">
+      <c r="D76" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E76" s="62" t="s">
+      <c r="E76" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F76" s="63">
-        <v>42475</v>
-      </c>
-      <c r="G76" s="63" t="s">
+      <c r="F76" s="53">
+        <v>42475</v>
+      </c>
+      <c r="G76" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H76" s="63">
-        <v>42475</v>
-      </c>
-      <c r="I76" s="62"/>
-      <c r="J76" s="64" t="s">
+      <c r="H76" s="53">
+        <v>42475</v>
+      </c>
+      <c r="I76" s="52"/>
+      <c r="J76" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="K76" s="62" t="s">
+      <c r="K76" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="L76" s="62" t="s">
-        <v>321</v>
+      <c r="L76" s="52" t="s">
+        <v>359</v>
       </c>
       <c r="M76" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="N76" s="63">
+      <c r="N76" s="53">
         <v>42480</v>
       </c>
-      <c r="O76" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="P76" s="65"/>
-      <c r="Q76" s="65"/>
-      <c r="R76" s="65"/>
-      <c r="S76" s="66"/>
+      <c r="O76" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="P76" s="66"/>
+      <c r="Q76" s="66"/>
+      <c r="R76" s="66"/>
+      <c r="S76" s="55"/>
       <c r="T76" s="30"/>
     </row>
     <row r="77" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="62" t="s">
+      <c r="C77" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="62" t="s">
+      <c r="D77" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E77" s="62" t="s">
+      <c r="E77" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="63">
-        <v>42475</v>
-      </c>
-      <c r="G77" s="63" t="s">
+      <c r="F77" s="53">
+        <v>42475</v>
+      </c>
+      <c r="G77" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H77" s="63">
-        <v>42475</v>
-      </c>
-      <c r="I77" s="62"/>
-      <c r="J77" s="64" t="s">
+      <c r="H77" s="53">
+        <v>42475</v>
+      </c>
+      <c r="I77" s="52"/>
+      <c r="J77" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="K77" s="62" t="s">
+      <c r="K77" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="L77" s="62" t="s">
-        <v>323</v>
+      <c r="L77" s="52" t="s">
+        <v>360</v>
       </c>
       <c r="M77" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="N77" s="63">
+      <c r="N77" s="53">
         <v>42479</v>
       </c>
-      <c r="O77" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="P77" s="65"/>
-      <c r="Q77" s="65"/>
-      <c r="R77" s="65"/>
-      <c r="S77" s="66"/>
+      <c r="O77" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="P77" s="66"/>
+      <c r="Q77" s="66"/>
+      <c r="R77" s="66"/>
+      <c r="S77" s="55"/>
       <c r="T77" s="30"/>
     </row>
     <row r="78" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="62" t="s">
+      <c r="D78" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="E78" s="62" t="s">
+      <c r="E78" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F78" s="63">
-        <v>42475</v>
-      </c>
-      <c r="G78" s="63" t="s">
+      <c r="F78" s="53">
+        <v>42475</v>
+      </c>
+      <c r="G78" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H78" s="63">
-        <v>42475</v>
-      </c>
-      <c r="I78" s="62"/>
-      <c r="J78" s="64" t="s">
+      <c r="H78" s="53">
+        <v>42475</v>
+      </c>
+      <c r="I78" s="52"/>
+      <c r="J78" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="K78" s="62" t="s">
+      <c r="K78" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="L78" s="62"/>
-      <c r="M78" s="64"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="64"/>
-      <c r="P78" s="65"/>
-      <c r="Q78" s="65"/>
-      <c r="R78" s="65"/>
-      <c r="S78" s="66"/>
+      <c r="L78" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="M78" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N78" s="53">
+        <v>42480</v>
+      </c>
+      <c r="O78" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="P78" s="66"/>
+      <c r="Q78" s="66"/>
+      <c r="R78" s="66"/>
+      <c r="S78" s="55"/>
       <c r="T78" s="30"/>
     </row>
     <row r="79" spans="1:20" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6305,13 +6338,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>30</v>
@@ -6320,7 +6353,7 @@
         <v>42478</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H79" s="21">
         <v>42478</v>
@@ -6330,7 +6363,7 @@
         <v>90</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L79" s="8" t="s">
         <v>285</v>
@@ -6348,7 +6381,7 @@
       <c r="Q79" s="25"/>
       <c r="R79" s="32"/>
       <c r="S79" s="26" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="T79" s="27"/>
     </row>
@@ -6363,7 +6396,7 @@
         <v>169</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>30</v>
@@ -6401,13 +6434,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>30</v>
@@ -6423,10 +6456,10 @@
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L81" s="20"/>
       <c r="M81" s="20"/>
@@ -6436,7 +6469,7 @@
       <c r="Q81" s="25"/>
       <c r="R81" s="32"/>
       <c r="S81" s="26" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="T81" s="27"/>
     </row>
@@ -6451,23 +6484,23 @@
         <v>169</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F82" s="21">
         <v>42478</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H82" s="21">
         <v>42478</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>91</v>
@@ -6489,13 +6522,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>30</v>
@@ -6514,7 +6547,7 @@
         <v>95</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L83" s="8"/>
       <c r="M83" s="20"/>
@@ -6524,7 +6557,7 @@
       <c r="Q83" s="25"/>
       <c r="R83" s="32"/>
       <c r="S83" s="26" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="T83" s="27"/>
     </row>
@@ -6542,7 +6575,7 @@
         <v>98</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F84" s="21">
         <v>42478</v>
@@ -6558,7 +6591,7 @@
         <v>229</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L84" s="8" t="s">
         <v>183</v>
@@ -6585,7 +6618,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>28</v>
@@ -6607,13 +6640,13 @@
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M85" s="20" t="s">
         <v>168</v>
@@ -6628,7 +6661,7 @@
       <c r="Q85" s="25"/>
       <c r="R85" s="33"/>
       <c r="S85" s="26" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="T85" s="27"/>
     </row>
@@ -6637,7 +6670,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>28</v>
@@ -6652,17 +6685,17 @@
         <v>42478</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H86" s="21">
         <v>42478</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="20"/>
@@ -6672,7 +6705,7 @@
       <c r="Q86" s="25"/>
       <c r="R86" s="33"/>
       <c r="S86" s="26" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="T86" s="27"/>
     </row>
@@ -6681,7 +6714,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>169</v>
@@ -6703,7 +6736,7 @@
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>91</v>
@@ -6716,7 +6749,7 @@
       <c r="Q87" s="25"/>
       <c r="R87" s="33"/>
       <c r="S87" s="26" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="T87" s="27"/>
     </row>
@@ -6725,16 +6758,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F88" s="21">
         <v>42478</v>
@@ -6747,13 +6780,13 @@
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M88" s="20" t="s">
         <v>168</v>
@@ -6768,7 +6801,7 @@
       <c r="Q88" s="17"/>
       <c r="R88" s="33"/>
       <c r="S88" s="26" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="T88" s="27"/>
     </row>
@@ -6777,13 +6810,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>163</v>
@@ -6799,10 +6832,10 @@
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L89" s="8"/>
       <c r="M89" s="20"/>
@@ -6812,7 +6845,7 @@
       <c r="Q89" s="17"/>
       <c r="R89" s="33"/>
       <c r="S89" s="26" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="T89" s="27"/>
     </row>
@@ -6821,16 +6854,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F90" s="21">
         <v>42478</v>
@@ -6843,7 +6876,7 @@
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>91</v>
@@ -6852,7 +6885,7 @@
         <v>101</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="N90" s="21">
         <v>42479</v>
@@ -6864,7 +6897,7 @@
       <c r="Q90" s="17"/>
       <c r="R90" s="33"/>
       <c r="S90" s="26" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="T90" s="27"/>
     </row>
@@ -6879,7 +6912,7 @@
         <v>28</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>163</v>
@@ -6898,7 +6931,7 @@
         <v>38</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>101</v>
@@ -6916,7 +6949,7 @@
       <c r="Q91" s="17"/>
       <c r="R91" s="33"/>
       <c r="S91" s="26" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="T91" s="27"/>
     </row>
@@ -6931,7 +6964,7 @@
         <v>169</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>163</v>
@@ -6950,7 +6983,7 @@
         <v>229</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>101</v>
@@ -6968,7 +7001,7 @@
       <c r="Q92" s="17"/>
       <c r="R92" s="33"/>
       <c r="S92" s="26" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="T92" s="27"/>
     </row>
@@ -6977,7 +7010,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>169</v>
@@ -6999,10 +7032,10 @@
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L93" s="8"/>
       <c r="M93" s="20"/>
@@ -7012,7 +7045,7 @@
       <c r="Q93" s="17"/>
       <c r="R93" s="33"/>
       <c r="S93" s="26" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="T93" s="27"/>
     </row>
@@ -7046,7 +7079,7 @@
         <v>229</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L94" s="8" t="s">
         <v>101</v>
@@ -7079,7 +7112,7 @@
         <v>169</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>163</v>
@@ -7098,7 +7131,7 @@
         <v>229</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L95" s="8" t="s">
         <v>101</v>
@@ -7116,7 +7149,7 @@
       <c r="Q95" s="17"/>
       <c r="R95" s="33"/>
       <c r="S95" s="26" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="T95" s="27"/>
     </row>
@@ -7603,17 +7636,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -7664,13 +7697,13 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="52">
+      <c r="A4" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="65" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="38" t="s">
@@ -7689,9 +7722,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="38" t="s">
         <v>122</v>
       </c>
@@ -7708,9 +7741,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65" t="s">
         <v>123</v>
       </c>
       <c r="D6" s="38" t="s">
@@ -7731,9 +7764,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="38" t="s">
         <v>128</v>
       </c>
@@ -7752,9 +7785,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="38" t="s">
         <v>131</v>
       </c>
@@ -7773,9 +7806,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="38" t="s">
         <v>134</v>
       </c>
@@ -7794,13 +7827,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="45">
+      <c r="A10" s="56">
         <v>3</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="58" t="s">
         <v>138</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -7819,9 +7852,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="42" t="s">
         <v>122</v>
       </c>
@@ -7838,9 +7871,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="48" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="59" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="38" t="s">
@@ -7861,9 +7894,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="49"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="38" t="s">
         <v>128</v>
       </c>
@@ -7882,9 +7915,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="49"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="38" t="s">
         <v>131</v>
       </c>
@@ -7903,9 +7936,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="49"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="38" t="s">
         <v>134</v>
       </c>
@@ -7924,8 +7957,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="43" t="s">
         <v>145</v>
       </c>
@@ -7943,8 +7976,8 @@
       <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="43" t="s">
         <v>148</v>
       </c>
